--- a/data/395_P_label_case.xlsx
+++ b/data/395_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,778 +448,674 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005383</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01039000138827146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.010766</v>
+        <v>0.005383</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07090817555180537</v>
+        <v>0.01039000138827146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.016149</v>
+        <v>0.010766</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1551886092794283</v>
+        <v>0.07090817555180537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.021532</v>
+        <v>0.016149</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2194337569956537</v>
+        <v>0.1551886092794283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.026915</v>
+        <v>0.021532</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2381569179248022</v>
+        <v>0.2194337569956537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.032782</v>
+        <v>0.026915</v>
       </c>
       <c r="B7" t="n">
-        <v>0.232077797519008</v>
+        <v>0.2381569179248022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.038648</v>
+        <v>0.032782</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2089625726146107</v>
+        <v>0.232077797519008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.044515</v>
+        <v>0.038648</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1821374471894741</v>
+        <v>0.2089625726146107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.050382</v>
+        <v>0.044515</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1570633671496917</v>
+        <v>0.1821374471894741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.056248</v>
+        <v>0.050382</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1351141714939549</v>
+        <v>0.1570633671496917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.062625</v>
+        <v>0.056248</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1151924094307864</v>
+        <v>0.1351141714939549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.06900299999999999</v>
+        <v>0.062625</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09898995712650538</v>
+        <v>0.1151924094307864</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.07537999999999999</v>
+        <v>0.06900299999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08624194975175113</v>
+        <v>0.09898995712650538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.08175700000000001</v>
+        <v>0.07537999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07618502156745835</v>
+        <v>0.08624194975175113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.088134</v>
+        <v>0.08175700000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06782424144092992</v>
+        <v>0.07618502156745835</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.09504700000000001</v>
+        <v>0.088134</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06047524504006395</v>
+        <v>0.06782424144092992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.10196</v>
+        <v>0.09504700000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05449483680408607</v>
+        <v>0.06047524504006395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.10887</v>
+        <v>0.10196</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04969382716130066</v>
+        <v>0.05449483680408607</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.11578</v>
+        <v>0.10887</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04578871878359028</v>
+        <v>0.04969382716130066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1227</v>
+        <v>0.11578</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04248230373476976</v>
+        <v>0.04578871878359028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.13017</v>
+        <v>0.1227</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03932673220874238</v>
+        <v>0.04248230373476976</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.13764</v>
+        <v>0.13017</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03667430244907003</v>
+        <v>0.03932673220874238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.14511</v>
+        <v>0.13764</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03444053659203948</v>
+        <v>0.03667430244907003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.15258</v>
+        <v>0.14511</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03254163445349085</v>
+        <v>0.03444053659203948</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.16005</v>
+        <v>0.15258</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03087508613872102</v>
+        <v>0.03254163445349085</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.16809</v>
+        <v>0.16005</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02917532250083574</v>
+        <v>0.03087508613872102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.17614</v>
+        <v>0.16809</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02768193105790962</v>
+        <v>0.02917532250083574</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.18418</v>
+        <v>0.17614</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02636559377428162</v>
+        <v>0.02768193105790962</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.19223</v>
+        <v>0.18418</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02522142912739482</v>
+        <v>0.02636559377428162</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.20028</v>
+        <v>0.19223</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02422735568118357</v>
+        <v>0.02522142912739482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.20891</v>
+        <v>0.20028</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02321902946616803</v>
+        <v>0.02422735568118357</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.21755</v>
+        <v>0.20891</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02229139752729517</v>
+        <v>0.02321902946616803</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.22618</v>
+        <v>0.21755</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02142267097375047</v>
+        <v>0.02229139752729517</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.23482</v>
+        <v>0.22618</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02061125282591447</v>
+        <v>0.02142267097375047</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.24345</v>
+        <v>0.23482</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01985002784573097</v>
+        <v>0.02061125282591447</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.25269</v>
+        <v>0.24345</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01905841476595632</v>
+        <v>0.01985002784573097</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.26192</v>
+        <v>0.25269</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01833416552662</v>
+        <v>0.01905841476595632</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.27115</v>
+        <v>0.26192</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01766175674741388</v>
+        <v>0.01833416552662</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.28038</v>
+        <v>0.27115</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01703297431285461</v>
+        <v>0.01766175674741388</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.28961</v>
+        <v>0.28038</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0164305058220557</v>
+        <v>0.01703297431285461</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.29945</v>
+        <v>0.28961</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01573081698321859</v>
+        <v>0.0164305058220557</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.30928</v>
+        <v>0.29945</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01503124143095429</v>
+        <v>0.01573081698321859</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.31911</v>
+        <v>0.30928</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01435199675106484</v>
+        <v>0.01503124143095429</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.32894</v>
+        <v>0.31911</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01372373333200477</v>
+        <v>0.01435199675106484</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.33877</v>
+        <v>0.32894</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01316267802790205</v>
+        <v>0.01372373333200477</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.34919</v>
+        <v>0.33877</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01259800172015396</v>
+        <v>0.01316267802790205</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.35961</v>
+        <v>0.34919</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01209225904637843</v>
+        <v>0.01259800172015396</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.37004</v>
+        <v>0.35961</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01162567940867849</v>
+        <v>0.01209225904637843</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.38046</v>
+        <v>0.37004</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01119307155525773</v>
+        <v>0.01162567940867849</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.39088</v>
+        <v>0.38046</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01078484525532466</v>
+        <v>0.01119307155525773</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.40188</v>
+        <v>0.39088</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01034557013215292</v>
+        <v>0.01078484525532466</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.41288</v>
+        <v>0.40188</v>
       </c>
       <c r="B53" t="n">
-        <v>0.009931360496498674</v>
+        <v>0.01034557013215292</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.42388</v>
+        <v>0.41288</v>
       </c>
       <c r="B54" t="n">
-        <v>0.009551130316090312</v>
+        <v>0.009931360496498674</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.43488</v>
+        <v>0.42388</v>
       </c>
       <c r="B55" t="n">
-        <v>0.009217484435503598</v>
+        <v>0.009551130316090312</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.44588</v>
+        <v>0.43488</v>
       </c>
       <c r="B56" t="n">
-        <v>0.008930504600148286</v>
+        <v>0.009217484435503598</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.45743</v>
+        <v>0.44588</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008642215669082135</v>
+        <v>0.008930504600148286</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.46898</v>
+        <v>0.45743</v>
       </c>
       <c r="B58" t="n">
-        <v>0.008348701113469824</v>
+        <v>0.008642215669082135</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.48053</v>
+        <v>0.46898</v>
       </c>
       <c r="B59" t="n">
-        <v>0.008042294100334852</v>
+        <v>0.008348701113469824</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.49208</v>
+        <v>0.48053</v>
       </c>
       <c r="B60" t="n">
-        <v>0.007726468833800537</v>
+        <v>0.008042294100334852</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.50363</v>
+        <v>0.49208</v>
       </c>
       <c r="B61" t="n">
-        <v>0.007405495682209102</v>
+        <v>0.007726468833800537</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5157</v>
+        <v>0.50363</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007072564193310123</v>
+        <v>0.007405495682209102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.52777</v>
+        <v>0.5157</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00674091320933669</v>
+        <v>0.007072564193310123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.53984</v>
+        <v>0.52777</v>
       </c>
       <c r="B64" t="n">
-        <v>0.006417462197855993</v>
+        <v>0.00674091320933669</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.55191</v>
+        <v>0.53984</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006107678664090732</v>
+        <v>0.006417462197855993</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.56398</v>
+        <v>0.55191</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005814615892772368</v>
+        <v>0.006107678664090732</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.57652</v>
+        <v>0.56398</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0055114694491683</v>
+        <v>0.005814615892772368</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.58906</v>
+        <v>0.57652</v>
       </c>
       <c r="B68" t="n">
-        <v>0.005231351025806199</v>
+        <v>0.0055114694491683</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.6016100000000001</v>
+        <v>0.58906</v>
       </c>
       <c r="B69" t="n">
-        <v>0.004966909049659527</v>
+        <v>0.005231351025806199</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.61415</v>
+        <v>0.6016100000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004713889965087027</v>
+        <v>0.004966909049659527</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.62669</v>
+        <v>0.61415</v>
       </c>
       <c r="B71" t="n">
-        <v>0.004464704382695131</v>
+        <v>0.004713889965087027</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.63966</v>
+        <v>0.62669</v>
       </c>
       <c r="B72" t="n">
-        <v>0.004206465599486074</v>
+        <v>0.004464704382695131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.65262</v>
+        <v>0.63966</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003950116415473106</v>
+        <v>0.004206465599486074</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6655800000000001</v>
+        <v>0.65262</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003696352135299198</v>
+        <v>0.003950116415473106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.67855</v>
+        <v>0.6655800000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003449397849606407</v>
+        <v>0.003696352135299198</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6915100000000001</v>
+        <v>0.67855</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003211820379634865</v>
+        <v>0.003449397849606407</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.7048300000000001</v>
+        <v>0.6915100000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>0.002976724668475933</v>
+        <v>0.003211820379634865</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.71816</v>
+        <v>0.7048300000000001</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00274985470137797</v>
+        <v>0.002976724668475933</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.73148</v>
+        <v>0.71816</v>
       </c>
       <c r="B79" t="n">
-        <v>0.002531762765598264</v>
+        <v>0.00274985470137797</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.7448</v>
+        <v>0.73148</v>
       </c>
       <c r="B80" t="n">
-        <v>0.00232400661790889</v>
+        <v>0.002531762765598264</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.75812</v>
+        <v>0.7448</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002127162796568808</v>
+        <v>0.00232400661790889</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.77173</v>
+        <v>0.75812</v>
       </c>
       <c r="B82" t="n">
-        <v>0.001930736590671328</v>
+        <v>0.002127162796568808</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.7853399999999999</v>
+        <v>0.77173</v>
       </c>
       <c r="B83" t="n">
-        <v>0.001737202160718254</v>
+        <v>0.001930736590671328</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.79895</v>
+        <v>0.7853399999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001549327833389645</v>
+        <v>0.001737202160718254</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8125600000000001</v>
+        <v>0.79895</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001370183102412766</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.8261700000000001</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.001202128168559949</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0.83999</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.001036063147463585</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.8538100000000001</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.0008821002647240333</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.8676299999999999</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.0007391356030791617</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.88145</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.0006068020083702756</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0.8952700000000001</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.0004847330793965858</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.90922</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.0003716148789618446</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.92317</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.0002723159506302419</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.9371200000000001</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.0001867843807763861</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.9510700000000001</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.0001157746405203061</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0.9650200000000001</v>
-      </c>
-      <c r="B96" t="n">
-        <v>6.027862821974349e-05</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.97901</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2.134193965439583e-05</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1.142486508902294e-06</v>
+        <v>0.001549327833389645</v>
       </c>
     </row>
   </sheetData>
